--- a/src/Avistamientos/GeneracionModelo/resultados.xlsx
+++ b/src/Avistamientos/GeneracionModelo/resultados.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\GitHub\Jellyfish_Forecast\src\Avistamientos\GeneracionModelo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D7782-DE9B-48BC-A8B1-D251063CB319}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>2__dias__c_celdas_2_splits</t>
   </si>
@@ -40,21 +46,12 @@
     <t>nearest_neighbor</t>
   </si>
   <si>
-    <t>nearest_neighbor_grid</t>
-  </si>
-  <si>
     <t>SVR</t>
   </si>
   <si>
-    <t>SVR_grid</t>
-  </si>
-  <si>
     <t>arbol_decision</t>
   </si>
   <si>
-    <t>arbol_decision_grid</t>
-  </si>
-  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -64,68 +61,65 @@
     <t>ensembles</t>
   </si>
   <si>
-    <t>{'max_depth': 2, 'max_features': 6, 'n_estimators': 39}</t>
-  </si>
-  <si>
-    <t>{'n_neighbors': 45}</t>
-  </si>
-  <si>
-    <t>{'svr__kernel': 'rbf', 'svr__epsilon': 0.2, 'svr__C': 100}</t>
-  </si>
-  <si>
-    <t>{'svr__C': 100, 'svr__epsilon': 0.2, 'svr__kernel': 'rbf'}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'max_depth': 10}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 13, 'max_features': 'log2'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 4, 'n_estimators': 1}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 7, 'max_features': 14, 'n_estimators': 112}</t>
-  </si>
-  <si>
-    <t>{'n_neighbors': 9}</t>
-  </si>
-  <si>
-    <t>{'svr__kernel': 'rbf', 'svr__epsilon': 0.2, 'svr__C': 1.0}</t>
-  </si>
-  <si>
-    <t>{'svr__C': 1.0, 'svr__epsilon': 0.2, 'svr__kernel': 'rbf'}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'sqrt', 'max_depth': 30}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 35, 'max_features': 'log2'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 8, 'n_estimators': 14}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 40, 'n_estimators': 182}</t>
-  </si>
-  <si>
-    <t>{'n_neighbors': 1}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'max_depth': 13}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 44, 'max_features': 'log2'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'n_estimators': 106}</t>
+    <t>{'max_depth': None, 'max_features': 'log2', 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 78, 'weights': 'uniform'}</t>
+  </si>
+  <si>
+    <t>{'C': 100, 'epsilon': 0.2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 575, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.001, 'max_iter': 1000, 'random_state': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 42, 'n_estimators': 231}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 50, 'max_features': 'log2', 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 9, 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.5, 'epsilon': 0.2, 'gamma': 'scale', 'kernel': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 761, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'alpha': 1e-05, 'max_iter': 1000, 'random_state': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 125, 'n_estimators': 8}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 100, 'max_features': 'log2', 'n_estimators': 500}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 7, 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'epsilon': 0.2, 'gamma': 'auto', 'kernel': 'poly'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 648, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.001, 'max_iter': 2000, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 60, 'n_estimators': 359}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,11 +182,1719 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>random_forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nearest_neighbor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>arbol_decision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boosting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.3359899981811309E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7389993570974871E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7600128656750893E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25236655487189918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6227936353754299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1389970057392734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F21A-4FDF-B5EF-E43968E5A444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="453349024"/>
+        <c:axId val="453345088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="453349024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453345088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453345088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453349024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>random_forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nearest_neighbor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>arbol_decision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boosting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.3359899981811309E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7389993570974871E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7600128656750893E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25236655487189918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6227936353754299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1389970057392734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA88-430D-AB1E-DC2CB0B76DF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="462098792"/>
+        <c:axId val="462103712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="462098792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462103712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462103712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462098792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="224">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477B1449-D97C-4BD5-9DB2-BC2389860574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DE13E8-B024-43CF-9C1F-8C8510AFD6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -234,7 +1936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +1968,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +2020,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +2213,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,201 +2246,151 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.008353012184014188</v>
+        <v>-2.3359899981811309E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>-0.9290328370506276</v>
+        <v>-0.76615136256749339</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>-0.8942766734011048</v>
+        <v>-1.0220783905856501</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01898919626239459</v>
+        <v>1.7389993570974871E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>-3.645653363138327</v>
+        <v>-3.62294231362986</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>-0.4045194879533886</v>
+        <v>-0.40980594602190601</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01898919626239459</v>
+        <v>-3.7600128656750893E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>-3.645653363138327</v>
+        <v>-6.1785404789621363E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>-0.4045194879533886</v>
+        <v>-0.11801870105662229</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.03474429641123555</v>
+        <v>0.25236655487189918</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>-0.05785493531122081</v>
+        <v>-0.12798320088042819</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>-0.1118636958163867</v>
+        <v>-0.36381451084646188</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03474429641123555</v>
+        <v>1.6227936353754299E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>-0.05785493531122081</v>
+        <v>-9.4521900415365651E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>-0.1118636958163867</v>
+        <v>-0.2046001180273552</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1278352939956628</v>
+        <v>-0.1389970057392734</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>-0.2562604134807179</v>
+        <v>-4.8148785166959946</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>-0.7258849368482385</v>
+        <v>-10.21450458732672</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.1540469730883073</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>-0.2251881518568116</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>-0.5816205691733221</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0.0001433832141358726</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>-2.713407290995747</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>-1.336212494637516</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Avistamientos/GeneracionModelo/resultados.xlsx
+++ b/src/Avistamientos/GeneracionModelo/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\GitHub\Jellyfish_Forecast\src\Avistamientos\GeneracionModelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D7782-DE9B-48BC-A8B1-D251063CB319}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621550E-DFD0-45C9-B7C9-2D812E59B440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>2__dias__c_celdas_2_splits</t>
   </si>
@@ -40,27 +40,15 @@
     <t>2__dias__c_celdas_10_splits_params</t>
   </si>
   <si>
-    <t>random_forest</t>
-  </si>
-  <si>
-    <t>nearest_neighbor</t>
-  </si>
-  <si>
     <t>SVR</t>
   </si>
   <si>
-    <t>arbol_decision</t>
-  </si>
-  <si>
     <t>MLP</t>
   </si>
   <si>
     <t>Boosting</t>
   </si>
   <si>
-    <t>ensembles</t>
-  </si>
-  <si>
     <t>{'max_depth': None, 'max_features': 'log2', 'n_estimators': 100}</t>
   </si>
   <si>
@@ -113,6 +101,15 @@
   </si>
   <si>
     <t>{'max_depth': 60, 'n_estimators': 359}</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Nearest Neighbor</t>
+  </si>
+  <si>
+    <t>Decission Tree</t>
   </si>
 </sst>
 </file>
@@ -234,16 +231,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>random_forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>nearest_neighbor</c:v>
+                  <c:v>Nearest Neighbor</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>SVR</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>arbol_decision</c:v>
+                  <c:v>Decission Tree</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>MLP</c:v>
@@ -514,16 +511,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>random_forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>nearest_neighbor</c:v>
+                  <c:v>Nearest Neighbor</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>SVR</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>arbol_decision</c:v>
+                  <c:v>Decission Tree</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>MLP</c:v>
@@ -2217,7 +2214,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,146 +2245,144 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>-2.3359899981811309E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>-0.76615136256749339</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>-1.0220783905856501</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1.7389993570974871E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>-3.62294231362986</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>-0.40980594602190601</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>-3.7600128656750893E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>-6.1785404789621363E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>-0.11801870105662229</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0.25236655487189918</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>-0.12798320088042819</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>-0.36381451084646188</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1.6227936353754299E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>-9.4521900415365651E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>-0.2046001180273552</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>-0.1389970057392734</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>-4.8148785166959946</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>-10.21450458732672</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
